--- a/2020_docs/03_基本設計/基本設計書_画面仕様書.xlsx
+++ b/2020_docs/03_基本設計/基本設計書_画面仕様書.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudakennin/Library/Mobile Documents/com~apple~CloudDocs/Development/projects/account-book-2020/02_要件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\03_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC25E4-CB67-6F49-A947-4A6BF5BEBD81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD0057-11A6-4E5C-A538-558634FB134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{70DEA5EA-478B-0B4B-875B-4B76E2467086}"/>
+    <workbookView xWindow="2723" yWindow="2813" windowWidth="23130" windowHeight="13650" activeTab="2" xr2:uid="{70DEA5EA-478B-0B4B-875B-4B76E2467086}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="要件定義" sheetId="2" r:id="rId2"/>
+    <sheet name="要件定義" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="画面要件" sheetId="4" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="5" r:id="rId4"/>
     <sheet name="ルール" sheetId="3" r:id="rId5"/>
@@ -2037,7 +2037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -26458,27 +26458,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F638B0FC-1EC5-794F-BE8B-8B4AE2E6C783}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.27734375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -26504,7 +26502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26530,7 +26528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
@@ -26540,7 +26538,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
@@ -26550,7 +26548,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -26560,7 +26558,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
@@ -26570,7 +26568,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
@@ -26580,7 +26578,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
@@ -26590,7 +26588,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
@@ -26600,7 +26598,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
@@ -26610,7 +26608,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
@@ -26620,7 +26618,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
@@ -26630,7 +26628,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
@@ -26640,7 +26638,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
@@ -26658,22 +26656,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA671EF-00E8-1443-AD86-7C99E192FE0C}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -26684,7 +26683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -26698,7 +26697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -26706,7 +26705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -26717,7 +26716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -26731,7 +26730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -26745,7 +26744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -26756,7 +26755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -26770,7 +26769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -26784,7 +26783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -26795,7 +26794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -26809,7 +26808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -26823,7 +26822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -26837,7 +26836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -26845,7 +26844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -26856,7 +26855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -26870,7 +26869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -26884,7 +26883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -26898,7 +26897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
         <v>50</v>
       </c>
@@ -26912,7 +26911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -26926,7 +26925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -26940,7 +26939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -26954,31 +26953,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
     </row>
@@ -26997,23 +26996,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C489A20-B11A-FD45-9424-87F9C40D7B04}">
   <dimension ref="A1:CR319"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="137" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="55.71875" bestFit="1" customWidth="1"/>
+    <col min="9" max="137" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -27024,7 +27023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -27038,7 +27037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -27052,7 +27051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -27069,7 +27068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -27086,7 +27085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -27103,7 +27102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -27123,7 +27122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -27137,7 +27136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -27151,7 +27150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -27169,7 +27168,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -27186,7 +27185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -27203,7 +27202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -27211,7 +27210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -27225,7 +27224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -27242,7 +27241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -27256,7 +27255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -27270,7 +27269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -27278,7 +27277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
         <v>50</v>
       </c>
@@ -27292,7 +27291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -27309,7 +27308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -27317,7 +27316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -27331,7 +27330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -27348,7 +27347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -27365,7 +27364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -27382,7 +27381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
@@ -27399,7 +27398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
@@ -27413,7 +27412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
@@ -27421,7 +27420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -27435,7 +27434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -27443,7 +27442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A31" s="7" t="s">
         <v>50</v>
       </c>
@@ -27451,7 +27450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
@@ -27459,7 +27458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -27467,7 +27466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -27475,7 +27474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -27483,7 +27482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
@@ -27491,7 +27490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -27505,7 +27504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -27513,7 +27512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -27521,7 +27520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -27529,7 +27528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
@@ -27537,7 +27536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A42" s="7" t="s">
         <v>50</v>
       </c>
@@ -27545,7 +27544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
@@ -27553,7 +27552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
@@ -27561,7 +27560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
@@ -27569,7 +27568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -27577,7 +27576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -27591,7 +27590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
@@ -27599,7 +27598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -27613,7 +27612,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
@@ -27621,7 +27620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
@@ -27629,7 +27628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -27637,7 +27636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -27645,7 +27644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A54" s="7" t="s">
         <v>50</v>
       </c>
@@ -27653,7 +27652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
@@ -27661,7 +27660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A56" s="7" t="s">
         <v>50</v>
       </c>
@@ -27669,7 +27668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A57" s="7" t="s">
         <v>50</v>
       </c>
@@ -27683,7 +27682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A58" s="7" t="s">
         <v>50</v>
       </c>
@@ -27697,7 +27696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A59" s="7" t="s">
         <v>50</v>
       </c>
@@ -27705,7 +27704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A60" s="7" t="s">
         <v>50</v>
       </c>
@@ -27713,7 +27712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A61" s="7" t="s">
         <v>50</v>
       </c>
@@ -27721,7 +27720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A62" s="7" t="s">
         <v>50</v>
       </c>
@@ -27729,7 +27728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A63" s="7" t="s">
         <v>50</v>
       </c>
@@ -27737,7 +27736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.8">
       <c r="A64" s="7" t="s">
         <v>50</v>
       </c>
@@ -27745,7 +27744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:92">
+    <row r="65" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A65" s="7" t="s">
         <v>50</v>
       </c>
@@ -27759,7 +27758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:92">
+    <row r="66" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A66" s="7" t="s">
         <v>50</v>
       </c>
@@ -27767,7 +27766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:92">
+    <row r="67" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
@@ -27775,7 +27774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:92">
+    <row r="68" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A68" s="7" t="s">
         <v>50</v>
       </c>
@@ -27789,7 +27788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:92">
+    <row r="69" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A69" s="7" t="s">
         <v>50</v>
       </c>
@@ -27797,7 +27796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:92">
+    <row r="70" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A70" s="7" t="s">
         <v>50</v>
       </c>
@@ -27811,7 +27810,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:92">
+    <row r="71" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A71" s="7" t="s">
         <v>50</v>
       </c>
@@ -27819,7 +27818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:92">
+    <row r="72" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A72" s="7" t="s">
         <v>50</v>
       </c>
@@ -27827,7 +27826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:92">
+    <row r="73" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A73" s="7" t="s">
         <v>50</v>
       </c>
@@ -27841,7 +27840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:92">
+    <row r="74" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A74" s="7" t="s">
         <v>50</v>
       </c>
@@ -27849,7 +27848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:92">
+    <row r="75" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A75" s="7" t="s">
         <v>50</v>
       </c>
@@ -27857,7 +27856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:92">
+    <row r="76" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A76" s="7" t="s">
         <v>50</v>
       </c>
@@ -27871,7 +27870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:92">
+    <row r="77" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A77" s="7" t="s">
         <v>50</v>
       </c>
@@ -27882,7 +27881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:92">
+    <row r="78" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A78" s="7" t="s">
         <v>50</v>
       </c>
@@ -27896,7 +27895,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:92">
+    <row r="79" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A79" s="7" t="s">
         <v>50</v>
       </c>
@@ -27904,7 +27903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:92">
+    <row r="80" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A80" s="7" t="s">
         <v>50</v>
       </c>
@@ -27912,7 +27911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:96">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A81" s="7" t="s">
         <v>50</v>
       </c>
@@ -27920,7 +27919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:96">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A82" s="7" t="s">
         <v>50</v>
       </c>
@@ -27934,7 +27933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:96">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A83" s="7" t="s">
         <v>50</v>
       </c>
@@ -27942,7 +27941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:96">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A84" s="7" t="s">
         <v>50</v>
       </c>
@@ -27950,7 +27949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:96">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A85" s="7" t="s">
         <v>50</v>
       </c>
@@ -27965,7 +27964,7 @@
       </c>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A86" s="7" t="s">
         <v>50</v>
       </c>
@@ -27980,7 +27979,7 @@
       </c>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96">
+    <row r="87" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A87" s="7" t="s">
         <v>50</v>
       </c>
@@ -27994,7 +27993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:96">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A88" s="7" t="s">
         <v>50</v>
       </c>
@@ -28002,7 +28001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:96">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A89" s="7" t="s">
         <v>50</v>
       </c>
@@ -28016,7 +28015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:96">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A90" s="7" t="s">
         <v>50</v>
       </c>
@@ -28024,7 +28023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:96">
+    <row r="91" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A91" s="7" t="s">
         <v>50</v>
       </c>
@@ -28032,7 +28031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:96">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A92" s="7" t="s">
         <v>50</v>
       </c>
@@ -28046,7 +28045,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:96">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A93" s="7" t="s">
         <v>50</v>
       </c>
@@ -28057,7 +28056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:96">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A94" s="7" t="s">
         <v>50</v>
       </c>
@@ -28071,7 +28070,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:96">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A95" s="7" t="s">
         <v>50</v>
       </c>
@@ -28082,7 +28081,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:96">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.8">
       <c r="A96" s="7" t="s">
         <v>50</v>
       </c>
@@ -28093,7 +28092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:93">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A97" s="7" t="s">
         <v>50</v>
       </c>
@@ -28101,7 +28100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:93">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A98" s="7" t="s">
         <v>50</v>
       </c>
@@ -28115,7 +28114,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:93">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A99" s="7" t="s">
         <v>50</v>
       </c>
@@ -28126,7 +28125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:93">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A100" s="7" t="s">
         <v>50</v>
       </c>
@@ -28137,7 +28136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:93">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A101" s="7" t="s">
         <v>50</v>
       </c>
@@ -28148,7 +28147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:93">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A102" s="7" t="s">
         <v>50</v>
       </c>
@@ -28159,7 +28158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:93">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A103" s="7" t="s">
         <v>50</v>
       </c>
@@ -28173,7 +28172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:93">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A104" s="7" t="s">
         <v>50</v>
       </c>
@@ -28184,7 +28183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:93">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A105" s="7" t="s">
         <v>50</v>
       </c>
@@ -28192,7 +28191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:93">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A106" s="7" t="s">
         <v>50</v>
       </c>
@@ -28200,7 +28199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:93">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A107" s="7" t="s">
         <v>50</v>
       </c>
@@ -28208,7 +28207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:93">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A108" s="7" t="s">
         <v>50</v>
       </c>
@@ -28216,7 +28215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:93">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A109" s="7" t="s">
         <v>50</v>
       </c>
@@ -28230,7 +28229,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:93">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A110" s="7" t="s">
         <v>50</v>
       </c>
@@ -28238,7 +28237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:93">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A111" s="7" t="s">
         <v>50</v>
       </c>
@@ -28246,7 +28245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:93">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.8">
       <c r="A112" s="7" t="s">
         <v>50</v>
       </c>
@@ -28254,7 +28253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:92">
+    <row r="113" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A113" s="7" t="s">
         <v>50</v>
       </c>
@@ -28268,7 +28267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:92">
+    <row r="114" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A114" s="7" t="s">
         <v>50</v>
       </c>
@@ -28279,7 +28278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:92">
+    <row r="115" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A115" s="7" t="s">
         <v>50</v>
       </c>
@@ -28290,7 +28289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:92">
+    <row r="116" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A116" s="7" t="s">
         <v>50</v>
       </c>
@@ -28298,7 +28297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:92">
+    <row r="117" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A117" s="7" t="s">
         <v>50</v>
       </c>
@@ -28306,7 +28305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:92">
+    <row r="118" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A118" s="7" t="s">
         <v>50</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:92">
+    <row r="119" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A119" s="7" t="s">
         <v>50</v>
       </c>
@@ -28328,7 +28327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:92">
+    <row r="120" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A120" s="7" t="s">
         <v>50</v>
       </c>
@@ -28342,7 +28341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:92">
+    <row r="121" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A121" s="7" t="s">
         <v>50</v>
       </c>
@@ -28350,7 +28349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:92">
+    <row r="122" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A122" s="7" t="s">
         <v>50</v>
       </c>
@@ -28358,7 +28357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:92">
+    <row r="123" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A123" s="7" t="s">
         <v>50</v>
       </c>
@@ -28366,7 +28365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:92">
+    <row r="124" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A124" s="7" t="s">
         <v>50</v>
       </c>
@@ -28374,7 +28373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:92">
+    <row r="125" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A125" s="7" t="s">
         <v>50</v>
       </c>
@@ -28382,7 +28381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:92">
+    <row r="126" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A126" s="7" t="s">
         <v>50</v>
       </c>
@@ -28390,7 +28389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:92">
+    <row r="127" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A127" s="7" t="s">
         <v>50</v>
       </c>
@@ -28398,7 +28397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:92">
+    <row r="128" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A128" s="7" t="s">
         <v>50</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:92">
+    <row r="129" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A129" s="7" t="s">
         <v>50</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:92">
+    <row r="130" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A130" s="7" t="s">
         <v>50</v>
       </c>
@@ -28422,7 +28421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:92">
+    <row r="131" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A131" s="7" t="s">
         <v>50</v>
       </c>
@@ -28430,7 +28429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:92">
+    <row r="132" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A132" s="7" t="s">
         <v>50</v>
       </c>
@@ -28438,7 +28437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:92">
+    <row r="133" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A133" s="7" t="s">
         <v>50</v>
       </c>
@@ -28446,7 +28445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:92">
+    <row r="134" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A134" s="7" t="s">
         <v>50</v>
       </c>
@@ -28454,7 +28453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:92">
+    <row r="135" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A135" s="7" t="s">
         <v>50</v>
       </c>
@@ -28462,7 +28461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:92">
+    <row r="136" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A136" s="7" t="s">
         <v>50</v>
       </c>
@@ -28470,7 +28469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:92">
+    <row r="137" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A137" s="7" t="s">
         <v>50</v>
       </c>
@@ -28484,7 +28483,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:92">
+    <row r="138" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A138" s="7" t="s">
         <v>50</v>
       </c>
@@ -28495,7 +28494,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:92">
+    <row r="139" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A139" s="7" t="s">
         <v>50</v>
       </c>
@@ -28503,7 +28502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:92">
+    <row r="140" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A140" s="7" t="s">
         <v>50</v>
       </c>
@@ -28511,7 +28510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:92">
+    <row r="141" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A141" s="7" t="s">
         <v>50</v>
       </c>
@@ -28519,7 +28518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:92">
+    <row r="142" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A142" s="7" t="s">
         <v>50</v>
       </c>
@@ -28527,7 +28526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:92">
+    <row r="143" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A143" s="7" t="s">
         <v>50</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:92">
+    <row r="144" spans="1:92" x14ac:dyDescent="0.8">
       <c r="A144" s="7" t="s">
         <v>50</v>
       </c>
@@ -28549,7 +28548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:52">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A145" s="7" t="s">
         <v>50</v>
       </c>
@@ -28557,7 +28556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:52">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A146" s="7" t="s">
         <v>50</v>
       </c>
@@ -28565,7 +28564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:52">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A147" s="7" t="s">
         <v>50</v>
       </c>
@@ -28579,7 +28578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:52">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A148" s="7" t="s">
         <v>50</v>
       </c>
@@ -28587,7 +28586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:52">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A149" s="7" t="s">
         <v>50</v>
       </c>
@@ -28595,7 +28594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:52">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A150" s="7" t="s">
         <v>50</v>
       </c>
@@ -28603,7 +28602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:52">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A151" s="7" t="s">
         <v>50</v>
       </c>
@@ -28611,7 +28610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:52">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A152" s="7" t="s">
         <v>50</v>
       </c>
@@ -28619,7 +28618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:52">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A153" s="7" t="s">
         <v>50</v>
       </c>
@@ -28627,7 +28626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:52">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A154" s="7" t="s">
         <v>50</v>
       </c>
@@ -28635,7 +28634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:52">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A155" s="7" t="s">
         <v>50</v>
       </c>
@@ -28643,7 +28642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:52">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A156" s="7" t="s">
         <v>50</v>
       </c>
@@ -28651,7 +28650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:52">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A157" s="7" t="s">
         <v>50</v>
       </c>
@@ -28665,7 +28664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:52">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A158" s="7" t="s">
         <v>50</v>
       </c>
@@ -28676,7 +28675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:52">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A159" s="7" t="s">
         <v>50</v>
       </c>
@@ -28687,7 +28686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:52">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.8">
       <c r="A160" s="7" t="s">
         <v>50</v>
       </c>
@@ -28698,7 +28697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:61">
+    <row r="161" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A161" s="7" t="s">
         <v>50</v>
       </c>
@@ -28712,7 +28711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:61">
+    <row r="162" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A162" s="7" t="s">
         <v>50</v>
       </c>
@@ -28720,7 +28719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:61">
+    <row r="163" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A163" s="7" t="s">
         <v>50</v>
       </c>
@@ -28728,7 +28727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:61">
+    <row r="164" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A164" s="7" t="s">
         <v>50</v>
       </c>
@@ -28742,7 +28741,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:61">
+    <row r="165" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A165" s="7" t="s">
         <v>50</v>
       </c>
@@ -28750,7 +28749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:61">
+    <row r="166" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A166" s="7" t="s">
         <v>50</v>
       </c>
@@ -28758,7 +28757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:61">
+    <row r="167" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A167" s="7" t="s">
         <v>50</v>
       </c>
@@ -28766,7 +28765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:61">
+    <row r="168" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A168" s="7" t="s">
         <v>50</v>
       </c>
@@ -28774,7 +28773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:61">
+    <row r="169" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A169" s="7" t="s">
         <v>50</v>
       </c>
@@ -28785,7 +28784,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="1:61">
+    <row r="170" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A170" s="7" t="s">
         <v>50</v>
       </c>
@@ -28793,7 +28792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:61">
+    <row r="171" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A171" s="7" t="s">
         <v>50</v>
       </c>
@@ -28801,7 +28800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:61">
+    <row r="172" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A172" s="7" t="s">
         <v>50</v>
       </c>
@@ -28815,7 +28814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:61">
+    <row r="173" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A173" s="7" t="s">
         <v>50</v>
       </c>
@@ -28826,7 +28825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="174" spans="1:61">
+    <row r="174" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A174" s="7" t="s">
         <v>50</v>
       </c>
@@ -28834,7 +28833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:61">
+    <row r="175" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A175" s="7" t="s">
         <v>50</v>
       </c>
@@ -28842,7 +28841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:61">
+    <row r="176" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A176" s="7" t="s">
         <v>50</v>
       </c>
@@ -28856,7 +28855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:61">
+    <row r="177" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A177" s="7" t="s">
         <v>50</v>
       </c>
@@ -28864,7 +28863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:61">
+    <row r="178" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A178" s="7" t="s">
         <v>50</v>
       </c>
@@ -28872,7 +28871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:61">
+    <row r="179" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A179" s="7" t="s">
         <v>50</v>
       </c>
@@ -28880,7 +28879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:61">
+    <row r="180" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A180" s="7" t="s">
         <v>50</v>
       </c>
@@ -28888,7 +28887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:61">
+    <row r="181" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A181" s="7" t="s">
         <v>50</v>
       </c>
@@ -28902,7 +28901,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:61">
+    <row r="182" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A182" s="7" t="s">
         <v>50</v>
       </c>
@@ -28910,7 +28909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:61">
+    <row r="183" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A183" s="7" t="s">
         <v>50</v>
       </c>
@@ -28918,7 +28917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:61">
+    <row r="184" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A184" s="7" t="s">
         <v>50</v>
       </c>
@@ -28926,7 +28925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:61">
+    <row r="185" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A185" s="7" t="s">
         <v>50</v>
       </c>
@@ -28940,7 +28939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:61">
+    <row r="186" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A186" s="7" t="s">
         <v>50</v>
       </c>
@@ -28948,7 +28947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:61">
+    <row r="187" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A187" s="7" t="s">
         <v>50</v>
       </c>
@@ -28956,7 +28955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:61">
+    <row r="188" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A188" s="7" t="s">
         <v>50</v>
       </c>
@@ -28964,7 +28963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:61">
+    <row r="189" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A189" s="7" t="s">
         <v>50</v>
       </c>
@@ -28972,7 +28971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:61">
+    <row r="190" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A190" s="7" t="s">
         <v>50</v>
       </c>
@@ -28980,7 +28979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:61">
+    <row r="191" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A191" s="7" t="s">
         <v>50</v>
       </c>
@@ -28988,7 +28987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:61">
+    <row r="192" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A192" s="7" t="s">
         <v>50</v>
       </c>
@@ -29002,7 +29001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A193" s="7" t="s">
         <v>50</v>
       </c>
@@ -29016,7 +29015,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A194" s="7" t="s">
         <v>50</v>
       </c>
@@ -29024,7 +29023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A195" s="7" t="s">
         <v>50</v>
       </c>
@@ -29032,7 +29031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A196" s="7" t="s">
         <v>50</v>
       </c>
@@ -29046,7 +29045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A197" s="7" t="s">
         <v>50</v>
       </c>
@@ -29060,7 +29059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A198" s="7" t="s">
         <v>50</v>
       </c>
@@ -29068,7 +29067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A199" s="7" t="s">
         <v>50</v>
       </c>
@@ -29076,7 +29075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A200" s="7" t="s">
         <v>50</v>
       </c>
@@ -29084,7 +29083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -29092,7 +29091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A202" s="7" t="s">
         <v>50</v>
       </c>
@@ -29100,7 +29099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A203" s="7" t="s">
         <v>50</v>
       </c>
@@ -29108,7 +29107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A204" s="7" t="s">
         <v>50</v>
       </c>
@@ -29116,7 +29115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A205" s="7" t="s">
         <v>50</v>
       </c>
@@ -29124,7 +29123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A206" s="7" t="s">
         <v>50</v>
       </c>
@@ -29132,7 +29131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A207" s="7" t="s">
         <v>50</v>
       </c>
@@ -29140,7 +29139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A208" s="7" t="s">
         <v>50</v>
       </c>
@@ -29148,7 +29147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:90">
+    <row r="209" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A209" s="7" t="s">
         <v>50</v>
       </c>
@@ -29156,7 +29155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:90">
+    <row r="210" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A210" s="7" t="s">
         <v>50</v>
       </c>
@@ -29164,7 +29163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:90">
+    <row r="211" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A211" s="7" t="s">
         <v>50</v>
       </c>
@@ -29172,7 +29171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:90">
+    <row r="212" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A212" s="7" t="s">
         <v>50</v>
       </c>
@@ -29180,7 +29179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:90">
+    <row r="213" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A213" s="7" t="s">
         <v>50</v>
       </c>
@@ -29188,7 +29187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:90">
+    <row r="214" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -29196,7 +29195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:90">
+    <row r="215" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A215" s="7" t="s">
         <v>50</v>
       </c>
@@ -29204,7 +29203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:90">
+    <row r="216" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A216" s="7" t="s">
         <v>50</v>
       </c>
@@ -29212,7 +29211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:90">
+    <row r="217" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A217" s="7" t="s">
         <v>50</v>
       </c>
@@ -29220,7 +29219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:90">
+    <row r="218" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A218" s="7" t="s">
         <v>50</v>
       </c>
@@ -29228,7 +29227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:90">
+    <row r="219" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A219" s="7" t="s">
         <v>50</v>
       </c>
@@ -29242,7 +29241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:90">
+    <row r="220" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A220" s="7" t="s">
         <v>50</v>
       </c>
@@ -29253,7 +29252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:90">
+    <row r="221" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A221" s="7" t="s">
         <v>50</v>
       </c>
@@ -29264,7 +29263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="1:90">
+    <row r="222" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A222" s="7" t="s">
         <v>50</v>
       </c>
@@ -29272,7 +29271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:90">
+    <row r="223" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A223" s="7" t="s">
         <v>50</v>
       </c>
@@ -29280,7 +29279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:90">
+    <row r="224" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A224" s="7" t="s">
         <v>50</v>
       </c>
@@ -29288,7 +29287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:90">
+    <row r="225" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A225" s="7" t="s">
         <v>50</v>
       </c>
@@ -29296,7 +29295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:90">
+    <row r="226" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A226" s="7" t="s">
         <v>50</v>
       </c>
@@ -29310,7 +29309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="227" spans="1:90">
+    <row r="227" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A227" s="7" t="s">
         <v>50</v>
       </c>
@@ -29321,7 +29320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="228" spans="1:90">
+    <row r="228" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A228" s="7" t="s">
         <v>50</v>
       </c>
@@ -29329,7 +29328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:90">
+    <row r="229" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A229" s="7" t="s">
         <v>50</v>
       </c>
@@ -29340,7 +29339,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:90">
+    <row r="230" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A230" s="7" t="s">
         <v>50</v>
       </c>
@@ -29348,7 +29347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:90">
+    <row r="231" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A231" s="7" t="s">
         <v>50</v>
       </c>
@@ -29356,7 +29355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:90">
+    <row r="232" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A232" s="7" t="s">
         <v>50</v>
       </c>
@@ -29364,7 +29363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:90">
+    <row r="233" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A233" s="7" t="s">
         <v>50</v>
       </c>
@@ -29372,7 +29371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:90">
+    <row r="234" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A234" s="7" t="s">
         <v>50</v>
       </c>
@@ -29380,7 +29379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:90">
+    <row r="235" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A235" s="7" t="s">
         <v>50</v>
       </c>
@@ -29388,7 +29387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:90">
+    <row r="236" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A236" s="7" t="s">
         <v>50</v>
       </c>
@@ -29396,7 +29395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:90">
+    <row r="237" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A237" s="7" t="s">
         <v>50</v>
       </c>
@@ -29404,7 +29403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:90">
+    <row r="238" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A238" s="7" t="s">
         <v>50</v>
       </c>
@@ -29412,7 +29411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:90">
+    <row r="239" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A239" s="7" t="s">
         <v>50</v>
       </c>
@@ -29420,7 +29419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:90">
+    <row r="240" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A240" s="7" t="s">
         <v>50</v>
       </c>
@@ -29428,7 +29427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:90">
+    <row r="241" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A241" s="7" t="s">
         <v>50</v>
       </c>
@@ -29436,7 +29435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:90">
+    <row r="242" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A242" s="7" t="s">
         <v>50</v>
       </c>
@@ -29444,7 +29443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:90">
+    <row r="243" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A243" s="7" t="s">
         <v>50</v>
       </c>
@@ -29452,7 +29451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:90">
+    <row r="244" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A244" s="7" t="s">
         <v>50</v>
       </c>
@@ -29460,7 +29459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:90">
+    <row r="245" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A245" s="7" t="s">
         <v>50</v>
       </c>
@@ -29468,7 +29467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:90">
+    <row r="246" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A246" s="7" t="s">
         <v>50</v>
       </c>
@@ -29476,7 +29475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:90">
+    <row r="247" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A247" s="7" t="s">
         <v>50</v>
       </c>
@@ -29490,7 +29489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="248" spans="1:90">
+    <row r="248" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A248" s="7" t="s">
         <v>50</v>
       </c>
@@ -29501,7 +29500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="249" spans="1:90">
+    <row r="249" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A249" s="7" t="s">
         <v>50</v>
       </c>
@@ -29509,7 +29508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:90">
+    <row r="250" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A250" s="7" t="s">
         <v>50</v>
       </c>
@@ -29517,7 +29516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:90">
+    <row r="251" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A251" s="7" t="s">
         <v>50</v>
       </c>
@@ -29525,7 +29524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:90">
+    <row r="252" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A252" s="7" t="s">
         <v>50</v>
       </c>
@@ -29533,7 +29532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:90">
+    <row r="253" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A253" s="7" t="s">
         <v>50</v>
       </c>
@@ -29541,7 +29540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:90">
+    <row r="254" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A254" s="7" t="s">
         <v>50</v>
       </c>
@@ -29549,7 +29548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:90">
+    <row r="255" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A255" s="7" t="s">
         <v>50</v>
       </c>
@@ -29557,7 +29556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:90">
+    <row r="256" spans="1:90" x14ac:dyDescent="0.8">
       <c r="A256" s="7" t="s">
         <v>50</v>
       </c>
@@ -29565,7 +29564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A257" s="7" t="s">
         <v>50</v>
       </c>
@@ -29573,7 +29572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A258" s="7" t="s">
         <v>50</v>
       </c>
@@ -29581,7 +29580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A259" s="7" t="s">
         <v>50</v>
       </c>
@@ -29595,7 +29594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A260" s="7" t="s">
         <v>50</v>
       </c>
@@ -29609,7 +29608,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A261" s="7" t="s">
         <v>50</v>
       </c>
@@ -29617,7 +29616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A262" s="7" t="s">
         <v>50</v>
       </c>
@@ -29625,7 +29624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A263" s="7" t="s">
         <v>50</v>
       </c>
@@ -29633,7 +29632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A264" s="7" t="s">
         <v>50</v>
       </c>
@@ -29641,7 +29640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A265" s="7" t="s">
         <v>50</v>
       </c>
@@ -29649,7 +29648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A266" s="7" t="s">
         <v>50</v>
       </c>
@@ -29657,7 +29656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A267" s="7" t="s">
         <v>50</v>
       </c>
@@ -29665,7 +29664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A268" s="7" t="s">
         <v>50</v>
       </c>
@@ -29673,7 +29672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A269" s="7" t="s">
         <v>50</v>
       </c>
@@ -29681,7 +29680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A270" s="7" t="s">
         <v>50</v>
       </c>
@@ -29689,7 +29688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A271" s="7" t="s">
         <v>50</v>
       </c>
@@ -29697,7 +29696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A272" s="7" t="s">
         <v>50</v>
       </c>
@@ -29705,7 +29704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:61">
+    <row r="273" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A273" s="7" t="s">
         <v>50</v>
       </c>
@@ -29713,7 +29712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:61">
+    <row r="274" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A274" s="7" t="s">
         <v>50</v>
       </c>
@@ -29721,7 +29720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:61">
+    <row r="275" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A275" s="7" t="s">
         <v>50</v>
       </c>
@@ -29729,7 +29728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:61">
+    <row r="276" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A276" s="7" t="s">
         <v>50</v>
       </c>
@@ -29737,7 +29736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:61">
+    <row r="277" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A277" s="7" t="s">
         <v>50</v>
       </c>
@@ -29745,7 +29744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:61">
+    <row r="278" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A278" s="7" t="s">
         <v>50</v>
       </c>
@@ -29753,7 +29752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:61">
+    <row r="279" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A279" s="7" t="s">
         <v>50</v>
       </c>
@@ -29767,7 +29766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:61">
+    <row r="280" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A280" s="7" t="s">
         <v>50</v>
       </c>
@@ -29778,7 +29777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:61">
+    <row r="281" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A281" s="7" t="s">
         <v>50</v>
       </c>
@@ -29786,7 +29785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:61">
+    <row r="282" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A282" s="7" t="s">
         <v>50</v>
       </c>
@@ -29794,7 +29793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:61">
+    <row r="283" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A283" s="7" t="s">
         <v>50</v>
       </c>
@@ -29808,7 +29807,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="284" spans="1:61">
+    <row r="284" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A284" s="7" t="s">
         <v>50</v>
       </c>
@@ -29816,7 +29815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:61">
+    <row r="285" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A285" s="7" t="s">
         <v>50</v>
       </c>
@@ -29824,7 +29823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:61">
+    <row r="286" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A286" s="7" t="s">
         <v>50</v>
       </c>
@@ -29832,7 +29831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:61">
+    <row r="287" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A287" s="7" t="s">
         <v>50</v>
       </c>
@@ -29846,7 +29845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="288" spans="1:61">
+    <row r="288" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A288" s="7" t="s">
         <v>50</v>
       </c>
@@ -29857,7 +29856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="289" spans="1:61">
+    <row r="289" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A289" s="7" t="s">
         <v>50</v>
       </c>
@@ -29865,7 +29864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:61">
+    <row r="290" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A290" s="7" t="s">
         <v>50</v>
       </c>
@@ -29873,7 +29872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:61">
+    <row r="291" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A291" s="7" t="s">
         <v>50</v>
       </c>
@@ -29881,7 +29880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:61">
+    <row r="292" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A292" s="7" t="s">
         <v>50</v>
       </c>
@@ -29895,7 +29894,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="293" spans="1:61">
+    <row r="293" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A293" s="7" t="s">
         <v>50</v>
       </c>
@@ -29906,7 +29905,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="294" spans="1:61">
+    <row r="294" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A294" s="7" t="s">
         <v>50</v>
       </c>
@@ -29914,7 +29913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:61">
+    <row r="295" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A295" s="7" t="s">
         <v>50</v>
       </c>
@@ -29922,7 +29921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:61">
+    <row r="296" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A296" s="7" t="s">
         <v>50</v>
       </c>
@@ -29936,7 +29935,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="297" spans="1:61">
+    <row r="297" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A297" s="7" t="s">
         <v>50</v>
       </c>
@@ -29944,7 +29943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:61">
+    <row r="298" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A298" s="7" t="s">
         <v>50</v>
       </c>
@@ -29952,7 +29951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:61">
+    <row r="299" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A299" s="7" t="s">
         <v>50</v>
       </c>
@@ -29960,7 +29959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:61">
+    <row r="300" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A300" s="7" t="s">
         <v>50</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:61">
+    <row r="301" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A301" s="7" t="s">
         <v>50</v>
       </c>
@@ -29976,7 +29975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:61">
+    <row r="302" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A302" s="7" t="s">
         <v>50</v>
       </c>
@@ -29984,7 +29983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:61">
+    <row r="303" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A303" s="7" t="s">
         <v>50</v>
       </c>
@@ -29998,7 +29997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="304" spans="1:61">
+    <row r="304" spans="1:61" x14ac:dyDescent="0.8">
       <c r="A304" s="7" t="s">
         <v>50</v>
       </c>
@@ -30009,7 +30008,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A305" s="7" t="s">
         <v>50</v>
       </c>
@@ -30017,7 +30016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A306" s="7" t="s">
         <v>50</v>
       </c>
@@ -30031,7 +30030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A307" s="7" t="s">
         <v>50</v>
       </c>
@@ -30042,51 +30041,51 @@
         <v>174</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.8">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
     </row>
@@ -30107,22 +30106,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACC8196-A328-F042-BF0B-B98A7D271BA5}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.71875" customWidth="1"/>
+    <col min="7" max="7" width="49.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -30137,7 +30134,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -30148,7 +30145,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -30159,7 +30156,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
@@ -30170,7 +30167,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -30181,7 +30178,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -30192,7 +30189,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -30203,7 +30200,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -30211,7 +30208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -30219,7 +30216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -30227,7 +30224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
@@ -30235,7 +30232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -30243,7 +30240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -30251,7 +30248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -30259,7 +30256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -30267,7 +30264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -30275,7 +30272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -30283,7 +30280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -30291,7 +30288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A19" s="7" t="s">
         <v>50</v>
       </c>
@@ -30299,7 +30296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -30307,7 +30304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -30315,7 +30312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -30323,7 +30320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -30331,7 +30328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -30339,7 +30336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -30347,7 +30344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
@@ -30355,7 +30352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
@@ -30363,7 +30360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
@@ -30371,7 +30368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -30379,7 +30376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -30387,7 +30384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A31" s="7" t="s">
         <v>50</v>
       </c>
@@ -30395,7 +30392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
@@ -30403,7 +30400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -30411,7 +30408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -30420,7 +30417,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -30428,7 +30425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
@@ -30436,7 +30433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -30444,7 +30441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -30452,7 +30449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -30460,7 +30457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -30484,21 +30481,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D986A616-F6BF-B847-85F4-275557164288}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -30506,7 +30501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -30514,7 +30509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
         <v>36</v>
       </c>
